--- a/biology/Neurosciences/Espérance_Broalet/Espérance_Broalet.xlsx
+++ b/biology/Neurosciences/Espérance_Broalet/Espérance_Broalet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esp%C3%A9rance_Broalet</t>
+          <t>Espérance_Broalet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Espérance Broalet ou Espérance Maman You Broalet, née d’une fratrie de six enfants en Côte d'Ivoire, elle est la première femme agrégée en anatomie et neurochirurgie en Afrique de l’Ouest.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esp%C3%A9rance_Broalet</t>
+          <t>Espérance_Broalet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines et études
-Espérance Broalet fait son cursus scolaire  primaire à Korhogo et le secondaire au centre de la Côte d'Ivoire, à Bouaké. À 18 ans, elle décroche le baccalauréat série C au lycée jeune fille de Yamoussoukro, un établissement d’excellence qui accueille les majors des écoles ivoiriennes, devenue aujourd’hui Mami Faitai. Elle obtient un certificat de physiologie neurosensorielle, en 1996, à la faculté de médecine d'Amiens en France puis, une année plus tard, une maîtrise des sciences biologiques et médicales à l’université de Cocody, à Abidjan. Après le doctorat en médecine, elle fait un diplôme d’étude approfondie de génie biomédical à l’Université de Cocody, à Abidjan, en 2006. Cette même année, Espérance Broalet ajoute à ses parchemins un certificat d’étude spéciale de neurochirurgie. Huit ans plus tard, le professeur Espérance Braolet, forgée à la pédagogie universitaire (depuis 1998) obtient un certificat d’études spéciales de neurologie, en 2014, à l’Université Félix Houphouët-Boigny de Cocody, avant de faire sa thèse unique[1],[2],[3],[4],[5],[6],[7].
+          <t>Origines et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espérance Broalet fait son cursus scolaire  primaire à Korhogo et le secondaire au centre de la Côte d'Ivoire, à Bouaké. À 18 ans, elle décroche le baccalauréat série C au lycée jeune fille de Yamoussoukro, un établissement d’excellence qui accueille les majors des écoles ivoiriennes, devenue aujourd’hui Mami Faitai. Elle obtient un certificat de physiologie neurosensorielle, en 1996, à la faculté de médecine d'Amiens en France puis, une année plus tard, une maîtrise des sciences biologiques et médicales à l’université de Cocody, à Abidjan. Après le doctorat en médecine, elle fait un diplôme d’étude approfondie de génie biomédical à l’Université de Cocody, à Abidjan, en 2006. Cette même année, Espérance Broalet ajoute à ses parchemins un certificat d’étude spéciale de neurochirurgie. Huit ans plus tard, le professeur Espérance Braolet, forgée à la pédagogie universitaire (depuis 1998) obtient un certificat d’études spéciales de neurologie, en 2014, à l’Université Félix Houphouët-Boigny de Cocody, avant de faire sa thèse unique.
 </t>
         </is>
       </c>
